--- a/Output/sweet_potato_year_result.xlsx
+++ b/Output/sweet_potato_year_result.xlsx
@@ -48,7 +48,7 @@
     <t>(.0340581)</t>
   </si>
   <si>
-    <t>1950 x Percentage Decrease in Tenant Area in 1953</t>
+    <t>1950 x Percentage Decrease in Tenant Area during 1953</t>
   </si>
   <si>
     <t xml:space="preserve">-923.5083   </t>
@@ -69,7 +69,7 @@
     <t>(2321.577)</t>
   </si>
   <si>
-    <t>1951 x Percentage Decrease in Tenant Area in 1953</t>
+    <t>1951 x Percentage Decrease in Tenant Area during 1953</t>
   </si>
   <si>
     <t xml:space="preserve">317.4079   </t>
@@ -84,7 +84,7 @@
     <t>(540.5463)</t>
   </si>
   <si>
-    <t>1954 x Percentage Decrease in Tenant Area in 1953</t>
+    <t>1954 x Percentage Decrease in Tenant Area during 1953</t>
   </si>
   <si>
     <t xml:space="preserve">-821.4225   </t>
@@ -105,7 +105,7 @@
     <t>(2720.672)</t>
   </si>
   <si>
-    <t>1955 x Percentage Decrease in Tenant Area in 1953</t>
+    <t>1955 x Percentage Decrease in Tenant Area during 1953</t>
   </si>
   <si>
     <t xml:space="preserve">-3028.962   </t>
@@ -126,7 +126,7 @@
     <t>(2850.63)</t>
   </si>
   <si>
-    <t>1956 x Percentage Decrease in Tenant Area in 1953</t>
+    <t>1956 x Percentage Decrease in Tenant Area during 1953</t>
   </si>
   <si>
     <t xml:space="preserve">-2169.892   </t>
